--- a/src/assets/scrna-seq.xlsx
+++ b/src/assets/scrna-seq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74794049-2EAC-3E4D-A4FB-5DA7B7C7822D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7491C3-3AF2-C442-984C-EA72D5F2B058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39400" yWindow="3280" windowWidth="28800" windowHeight="16400" activeTab="4" xr2:uid="{307409F0-4448-0143-B239-541C30336205}"/>
+    <workbookView xWindow="32500" yWindow="2680" windowWidth="28800" windowHeight="16400" activeTab="4" xr2:uid="{307409F0-4448-0143-B239-541C30336205}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="1" r:id="rId1"/>
@@ -855,12 +855,6 @@
     <t>Term Source ID</t>
   </si>
   <si>
-    <t>RNA purity 260:280 ratio</t>
-  </si>
-  <si>
-    <t>RNA purity 260:230 ratio</t>
-  </si>
-  <si>
     <t>RNA Integrity Number</t>
   </si>
   <si>
@@ -873,9 +867,6 @@
     <t>Amplification Method</t>
   </si>
   <si>
-    <t>Amplification Cycle</t>
-  </si>
-  <si>
     <t>End Bias</t>
   </si>
   <si>
@@ -895,6 +886,15 @@
   </si>
   <si>
     <t>Read Strand</t>
+  </si>
+  <si>
+    <t>RNA purity 260-280 ratio</t>
+  </si>
+  <si>
+    <t>RNA purity 260-230 ratio</t>
+  </si>
+  <si>
+    <t>Amplification Cycles</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1526,7 @@
   <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AP1" sqref="AP1"/>
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1561,7 +1561,7 @@
     <col min="28" max="28" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="7.6640625" bestFit="1" customWidth="1"/>
@@ -1569,7 +1569,7 @@
     <col min="36" max="36" width="24" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="22" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1656,46 +1656,46 @@
         <v>270</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AH1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>
